--- a/samples/employees.xlsx
+++ b/samples/employees.xlsx
@@ -1,12 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="2" lowestEdited="2"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$K$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sheet1'!$A$1:$K$108</definedName>
   </definedNames>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
@@ -1328,19 +1330,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm:ss.000"/>
   </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <u val="none"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <b/>
+      <u val="none"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1367,11 +1370,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,42 +1386,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
